--- a/output/17stycznia/2019/sheets/year_2019.xlsx
+++ b/output/17stycznia/2019/sheets/year_2019.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>46.2741935483871</v>
+        <v>47.87097365366276</v>
       </c>
       <c r="C2" t="n">
-        <v>44.73548387096775</v>
+        <v>47.4453956694612</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>47.46785714285715</v>
+        <v>49.90475410869819</v>
       </c>
       <c r="C3" t="n">
-        <v>46.73928571428571</v>
+        <v>48.20779916646011</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>51.11935483870967</v>
+        <v>52.30241715139378</v>
       </c>
       <c r="C4" t="n">
-        <v>48.78387096774194</v>
+        <v>49.5611794502749</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>46.96666666666668</v>
+        <v>48.77187530783128</v>
       </c>
       <c r="C5" t="n">
-        <v>47.28</v>
+        <v>48.54643251194061</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.87741935483871</v>
+        <v>50.71140900560949</v>
       </c>
       <c r="C6" t="n">
-        <v>46.19677419354838</v>
+        <v>49.77696964844947</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>44.11666666666666</v>
+        <v>45.54786441297172</v>
       </c>
       <c r="C7" t="n">
-        <v>46.22333333333332</v>
+        <v>46.93753816240417</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>45.3</v>
+        <v>46.06900133801216</v>
       </c>
       <c r="C8" t="n">
-        <v>46.00967741935484</v>
+        <v>46.75159862398829</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.07419354838709</v>
+        <v>45.30912534760666</v>
       </c>
       <c r="C9" t="n">
-        <v>44.81290322580644</v>
+        <v>46.46618386932432</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>48.41666666666666</v>
+        <v>49.56787046246124</v>
       </c>
       <c r="C10" t="n">
-        <v>49.00333333333334</v>
+        <v>49.58320512440658</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>50.54516129032257</v>
+        <v>51.80206763127992</v>
       </c>
       <c r="C11" t="n">
-        <v>49.89677419354838</v>
+        <v>50.53198539378954</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>47.08666666666667</v>
+        <v>49.18952035205052</v>
       </c>
       <c r="C12" t="n">
-        <v>47.60000000000001</v>
+        <v>48.23457513261803</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>49.50967741935484</v>
+        <v>51.5169956113084</v>
       </c>
       <c r="C13" t="n">
-        <v>47.69354838709678</v>
+        <v>48.90618723772181</v>
       </c>
     </row>
   </sheetData>
